--- a/Analisa Butir Soal Advanced.xlsx
+++ b/Analisa Butir Soal Advanced.xlsx
@@ -18,34 +18,34 @@
     <sheet name="Simpel - Fungsi Distraktor" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm_Print_Area" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$49</definedName>
+    <definedName name="_xlnm_Print_Area" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$51</definedName>
     <definedName name="_xlnm_Print_Area" localSheetId="3">'Simpel - Fungsi Distraktor'!$A$6:$N$711</definedName>
     <definedName name="_xlnm_Print_Area" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$224</definedName>
-    <definedName name="_xlnm_Print_Area_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
-    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0_0_0" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="_xlnm_Print_Area_0_0_0_0_0_0_0_0_0" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
     <definedName name="_xlnm_Print_Titles" localSheetId="3">'Simpel - Fungsi Distraktor'!$11:$11</definedName>
     <definedName name="_xlnm_Print_Titles" localSheetId="2">'Tingkat Lanjut - IK-DP'!$11:$12</definedName>
-    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$43</definedName>
+    <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$45</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="3">'Simpel - Fungsi Distraktor'!$A$6:$N$711</definedName>
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$219</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Data 1'!$A$3:$G$4</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LAPORAN ANALISA'!$A$5:$E$49</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LAPORAN ANALISA'!$A$7:$E$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Simpel - Fungsi Distraktor'!$A$6:$M$1411</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Tingkat Lanjut - IK-DP'!$A$6:$O$225</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'Simpel - Fungsi Distraktor'!$11:$11</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="147">
   <si>
     <t>Petunjuk:</t>
   </si>
@@ -561,12 +561,24 @@
   <si>
     <t>Setting Daya Pembeda</t>
   </si>
+  <si>
+    <t>Lisensi</t>
+  </si>
+  <si>
+    <t>: GNU Public License v3</t>
+  </si>
+  <si>
+    <t>Copy Left</t>
+  </si>
+  <si>
+    <t>: Universitas 'Aisyiyah Yogyakarta</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -637,6 +649,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
@@ -756,7 +774,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -965,14 +983,38 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -983,59 +1025,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1049,33 +1046,59 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1424,10 +1447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW49"/>
+  <dimension ref="A1:IW51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,54 +1471,34 @@
     <col min="16" max="257" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="121" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="120"/>
+      <c r="C1" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="121" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+    </row>
+    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="91" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="5"/>
@@ -1509,14 +1512,14 @@
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="5"/>
@@ -1528,14 +1531,16 @@
       <c r="N4" s="5"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
+    <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="5"/>
@@ -1547,12 +1552,16 @@
       <c r="N5" s="5"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+    <row r="6" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="5"/>
@@ -1565,15 +1574,13 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="90" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="90"/>
-      <c r="C7" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
+      <c r="A7" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="5"/>
@@ -1585,16 +1592,11 @@
       <c r="N7" s="5"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="6" t="str">
-        <f>CONCATENATE('Tingkat Lanjut - IK-DP'!B225," butir")</f>
-        <v>0 butir</v>
-      </c>
-      <c r="D8" s="6"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1607,17 +1609,16 @@
       <c r="N8" s="5"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="6">
-        <f>'Data 1'!K4*100</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="7"/>
+    <row r="9" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="5"/>
@@ -1629,19 +1630,16 @@
       <c r="N9" s="5"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="90" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="6">
-        <f>'Data 1'!P4*100</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="6" t="str">
-        <f>IF('Data 1'!P4&gt;=0.8,"Sangat Tinggi",IF('Data 1'!P4&gt;=0.6,"Tinggi",IF('Data 1'!P4&gt;=0.4,"Sedang",IF('Data 1'!P4&gt;=0.2,"Rendah","Sangat Rendah"))))</f>
-        <v>Sangat Rendah</v>
-      </c>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="88"/>
+      <c r="C10" s="6" t="str">
+        <f>CONCATENATE('Tingkat Lanjut - IK-DP'!B225," butir")</f>
+        <v>0 butir</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -1654,10 +1652,15 @@
       <c r="N10" s="5"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6"/>
+    <row r="11" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="88" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="6">
+        <f>'Data 1'!K4*100</f>
+        <v>0</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="4"/>
@@ -1671,14 +1674,20 @@
       <c r="N11" s="5"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
+    <row r="12" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="88" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="88"/>
+      <c r="C12" s="6">
+        <f>'Data 1'!P4*100</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="6" t="str">
+        <f>IF('Data 1'!P4&gt;=0.8,"Sangat Tinggi",IF('Data 1'!P4&gt;=0.6,"Tinggi",IF('Data 1'!P4&gt;=0.4,"Sedang",IF('Data 1'!P4&gt;=0.2,"Rendah","Sangat Rendah"))))</f>
+        <v>Sangat Rendah</v>
+      </c>
+      <c r="E12" s="7"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="5"/>
@@ -1690,22 +1699,12 @@
       <c r="N12" s="5"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>14</v>
-      </c>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="5"/>
@@ -1717,14 +1716,14 @@
       <c r="N13" s="5"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
+    <row r="14" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="88" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="5"/>
@@ -1737,13 +1736,21 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
+      <c r="A15" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="5"/>
@@ -1756,18 +1763,13 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14">
-        <f>'Simpel - Fungsi Distraktor'!J214</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="90" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="5"/>
@@ -1780,18 +1782,13 @@
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>2</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="14">
-        <f>'Simpel - Fungsi Distraktor'!J215</f>
-        <v>1</v>
-      </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="5"/>
@@ -1804,13 +1801,18 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A18" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
+      <c r="A18" s="13">
+        <v>1</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="14">
+        <f>'Simpel - Fungsi Distraktor'!J214</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="5"/>
@@ -1824,21 +1826,17 @@
     </row>
     <row r="19" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
+        <v>2</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="14">
+        <f>'Simpel - Fungsi Distraktor'!J215</f>
         <v>1</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="14">
-        <f>'Simpel - Fungsi Distraktor'!J219</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>137</v>
-      </c>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="5"/>
@@ -1851,22 +1849,13 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>2</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="14">
-        <f>'Simpel - Fungsi Distraktor'!J220</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="91"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="5"/>
@@ -1880,20 +1869,20 @@
     </row>
     <row r="21" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C21" s="14">
-        <f>'Simpel - Fungsi Distraktor'!J221</f>
-        <v>1</v>
+        <f>'Simpel - Fungsi Distraktor'!J219</f>
+        <v>0</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1907,13 +1896,22 @@
       <c r="O21" s="4"/>
     </row>
     <row r="22" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
+      <c r="A22" s="13">
+        <v>2</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="14">
+        <f>'Simpel - Fungsi Distraktor'!J220</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="5"/>
@@ -1926,13 +1924,22 @@
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A23" s="84" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
+      <c r="A23" s="13">
+        <v>3</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="14">
+        <f>'Simpel - Fungsi Distraktor'!J221</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="5"/>
@@ -1945,17 +1952,13 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="A24" s="90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="5"/>
@@ -1968,24 +1971,13 @@
       <c r="O24" s="4"/>
     </row>
     <row r="25" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>1</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="18">
-        <f>'Tingkat Lanjut - IK-DP'!B216</f>
-        <v>200</v>
-      </c>
-      <c r="D25" s="18">
-        <f>'Tingkat Lanjut - IK-DP'!C216</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="18">
-        <f>'Tingkat Lanjut - IK-DP'!D216</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="5"/>
@@ -1998,23 +1990,16 @@
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>2</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="18">
-        <f>'Tingkat Lanjut - IK-DP'!B217</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="14">
-        <f>'Tingkat Lanjut - IK-DP'!C217</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="14">
-        <f>'Tingkat Lanjut - IK-DP'!D217</f>
-        <v>0</v>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
@@ -2029,21 +2014,21 @@
     </row>
     <row r="27" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C27" s="18">
-        <f>'Tingkat Lanjut - IK-DP'!B218</f>
+        <f>'Tingkat Lanjut - IK-DP'!B216</f>
+        <v>200</v>
+      </c>
+      <c r="D27" s="18">
+        <f>'Tingkat Lanjut - IK-DP'!C216</f>
         <v>0</v>
       </c>
-      <c r="D27" s="14">
-        <f>'Tingkat Lanjut - IK-DP'!C218</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="14">
-        <f>'Tingkat Lanjut - IK-DP'!D218</f>
+      <c r="E27" s="18">
+        <f>'Tingkat Lanjut - IK-DP'!D216</f>
         <v>0</v>
       </c>
       <c r="F27" s="4"/>
@@ -2058,13 +2043,24 @@
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A28" s="84" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
+      <c r="A28" s="13">
+        <v>2</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="18">
+        <f>'Tingkat Lanjut - IK-DP'!B217</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="14">
+        <f>'Tingkat Lanjut - IK-DP'!C217</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="14">
+        <f>'Tingkat Lanjut - IK-DP'!D217</f>
+        <v>0</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="5"/>
@@ -2078,20 +2074,22 @@
     </row>
     <row r="29" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="14">
-        <f>'Tingkat Lanjut - IK-DP'!B222</f>
+        <v>32</v>
+      </c>
+      <c r="C29" s="18">
+        <f>'Tingkat Lanjut - IK-DP'!B218</f>
         <v>0</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>137</v>
+      <c r="D29" s="14">
+        <f>'Tingkat Lanjut - IK-DP'!C218</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="14">
+        <f>'Tingkat Lanjut - IK-DP'!D218</f>
+        <v>0</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
@@ -2105,22 +2103,13 @@
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
-        <v>2</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="19">
-        <f>'Tingkat Lanjut - IK-DP'!B223</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>22</v>
-      </c>
+      <c r="A30" s="91" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="5"/>
@@ -2132,22 +2121,22 @@
       <c r="N30" s="5"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="15">
-        <v>3</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="19">
-        <f>'Tingkat Lanjut - IK-DP'!B224</f>
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>1</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="14">
+        <f>'Tingkat Lanjut - IK-DP'!B222</f>
         <v>0</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -2160,12 +2149,23 @@
       <c r="N31" s="5"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="15">
+        <v>2</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="19">
+        <f>'Tingkat Lanjut - IK-DP'!B223</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="5"/>
@@ -2177,93 +2177,138 @@
       <c r="N32" s="5"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="85" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="15">
+        <v>3</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19">
+        <f>'Tingkat Lanjut - IK-DP'!B224</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="85"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D35" s="86" t="s">
+      <c r="E36" s="93"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D37" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="E35" s="86"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="22"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="22"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D38" s="85" t="s">
+      <c r="E37" s="94"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="E39" s="22"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D40" s="93" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="85"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C39" s="87" t="s">
+      <c r="E40" s="93"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C41" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="D39" s="87"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C40" s="83" t="s">
+      <c r="D41" s="95"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C42" s="97" t="s">
         <v>140</v>
       </c>
-      <c r="D40" s="83"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C43" s="83" t="s">
+      <c r="D42" s="97"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C45" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="D43" s="83"/>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="82" t="s">
+      <c r="D45" s="97"/>
+    </row>
+    <row r="46" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="82"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-    </row>
-    <row r="46" spans="1:5" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="82" t="str">
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+    </row>
+    <row r="48" spans="1:15" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="96" t="str">
         <f>CONCATENATE("Distraktor adalah opsi jawaban pengecoh. Harapannya adalah di dalam 1 soal, semua opsi jawaban adalah pengecoh. Opsi jawaban dikatakan berhasil sebagai pengecoh apabila ",TEXT('Simpel - Fungsi Distraktor'!G10,"0.0%")," peserta menjawab dengan opsi tersebut. ",IF('Simpel - Fungsi Distraktor'!G9&gt;0,CONCATENATE("Di dalam analisis butir soal ini ditoleransi ",'Simpel - Fungsi Distraktor'!G9," opsi jawaban yang gagal sebagai pengecoh."),""))</f>
         <v>Distraktor adalah opsi jawaban pengecoh. Harapannya adalah di dalam 1 soal, semua opsi jawaban adalah pengecoh. Opsi jawaban dikatakan berhasil sebagai pengecoh apabila 5.0% peserta menjawab dengan opsi tersebut. Di dalam analisis butir soal ini ditoleransi 1 opsi jawaban yang gagal sebagai pengecoh.</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="82"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="82"/>
-    </row>
-    <row r="47" spans="1:5" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="82" t="s">
+      <c r="B48" s="96"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+    </row>
+    <row r="49" spans="1:5" ht="41.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="82"/>
-      <c r="C47" s="82"/>
-      <c r="D47" s="82"/>
-      <c r="E47" s="82"/>
-    </row>
-    <row r="48" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="B49" s="96"/>
+      <c r="C49" s="96"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="96"/>
+    </row>
+    <row r="50" spans="1:5" ht="108.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24">
         <v>1</v>
       </c>
-      <c r="B48" s="82" t="str">
+      <c r="B50" s="96" t="str">
         <f>CONCATENATE("Metode Simpel",CHAR(10),"Soal masuk ke dalam BANK SOAL apabila soal tersebut BAIK dan distraktor berjalan.",CHAR(10),"Soal masuk ke dalam BANK SOAL setelah dilakukan revisi pada distraktor apabila soal tersebut BAIK dan distraktor tidak berjalan.",CHAR(10),"Soal tidak dapat masuk ke dalam BANK SOAL apabila soal tersebut TIDAK BAIK.",CHAR(10),CHAR(10),"Pada analisis butir soal ini, soal dikatakan BAIK apabila terdapat ",TEXT('Simpel - Fungsi Distraktor'!L9,"0.0%")," sampai ",TEXT('Simpel - Fungsi Distraktor'!L10,"0.0%")," peserta yang menjawab dengan benar.")</f>
         <v>Metode Simpel
 Soal masuk ke dalam BANK SOAL apabila soal tersebut BAIK dan distraktor berjalan.
@@ -2271,15 +2316,15 @@
 Soal tidak dapat masuk ke dalam BANK SOAL apabila soal tersebut TIDAK BAIK.
 Pada analisis butir soal ini, soal dikatakan BAIK apabila terdapat 30.0% sampai 80.0% peserta yang menjawab dengan benar.</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-    </row>
-    <row r="49" spans="1:5" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="24">
+      <c r="C50" s="96"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="96"/>
+    </row>
+    <row r="51" spans="1:5" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="24">
         <v>2</v>
       </c>
-      <c r="B49" s="82" t="str">
+      <c r="B51" s="96" t="str">
         <f>CONCATENATE("Metode Tingkat Lanjut",CHAR(10),"Soal masuk ke dalam BANK SOAL apabila soal tersebut TIDAK SUKAR atau TIDAK JELEK dan distraktor berjalan.",CHAR(10),"Soal masuk ke dalam BANK SOAL setelah dilakukan revisi pada distraktor apabila soal tersebut TIDAK SUKAR, TIDAK JELEK dan distraktor tidak berjalan.",CHAR(10),"Soal tidak dapat masuk ke dalam BANK SOAL apabila soal tersebut SUKAR dan JELEK.",CHAR(10),CHAR(10),"Pada analisis butir soal ini , soal dikatakan memiliki Tingkat Kesukaran SUKAR jika nilai Facility Index tidak lebih dari ",TEXT('Tingkat Lanjut - IK-DP'!M9,"0.0%")," dan soal dikatakan memiliki Daya Pembeda JELEK apabila nilai Discrimination Index tidak lebih dari 20%")</f>
         <v>Metode Tingkat Lanjut
 Soal masuk ke dalam BANK SOAL apabila soal tersebut TIDAK SUKAR atau TIDAK JELEK dan distraktor berjalan.
@@ -2287,40 +2332,41 @@
 Soal tidak dapat masuk ke dalam BANK SOAL apabila soal tersebut SUKAR dan JELEK.
 Pada analisis butir soal ini , soal dikatakan memiliki Tingkat Kesukaran SUKAR jika nilai Facility Index tidak lebih dari 25.0% dan soal dikatakan memiliki Daya Pembeda JELEK apabila nilai Discrimination Index tidak lebih dari 20%</v>
       </c>
-      <c r="C49" s="82"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
+      <c r="C51" s="96"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
+  <mergeCells count="29">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A49:E49"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="B4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A7:E7"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.42708333333333298" bottom="0.500694444444444" header="0.51180555555555496" footer="0.33402777777777798"/>
   <pageSetup paperSize="9" scale="84" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2369,10 +2415,10 @@
       <c r="R1" s="27"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="94"/>
+      <c r="B2" s="98"/>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28"/>
@@ -2524,129 +2570,129 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="91"/>
-      <c r="M3" s="91"/>
-      <c r="N3" s="91"/>
-      <c r="O3" s="91"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="86"/>
     </row>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
-      <c r="O4" s="91"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86"/>
+      <c r="O4" s="86"/>
     </row>
     <row r="5" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="B5" s="86" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
-      <c r="K5" s="91"/>
-      <c r="L5" s="91"/>
-      <c r="M5" s="91"/>
-      <c r="N5" s="91"/>
-      <c r="O5" s="91"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
     </row>
     <row r="6" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-      <c r="L6" s="92"/>
-      <c r="M6" s="92"/>
-      <c r="N6" s="92"/>
-      <c r="O6" s="92"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
     </row>
     <row r="7" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
-      <c r="N7" s="106"/>
-      <c r="O7" s="106"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99"/>
     </row>
     <row r="8" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="100"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8"/>
@@ -2656,40 +2702,40 @@
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8" s="108" t="s">
+      <c r="L8" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="108"/>
-      <c r="N8" s="113" t="s">
+      <c r="M8" s="101"/>
+      <c r="N8" s="103" t="s">
         <v>142</v>
       </c>
-      <c r="O8" s="114"/>
+      <c r="O8" s="104"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107" t="str">
-        <f>'LAPORAN ANALISA'!C7</f>
+      <c r="A9" s="100" t="str">
+        <f>'LAPORAN ANALISA'!C9</f>
         <v>NAMA MATA KULIAH</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="107"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="107"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
       <c r="L9" s="36" t="s">
         <v>62</v>
       </c>
       <c r="M9" s="37">
         <v>0.25</v>
       </c>
-      <c r="N9" s="115" t="s">
+      <c r="N9" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="O9" s="116">
+      <c r="O9" s="83">
         <v>0.2</v>
       </c>
     </row>
@@ -2711,68 +2757,68 @@
       <c r="M10" s="37">
         <v>0.75</v>
       </c>
-      <c r="N10" s="117" t="s">
+      <c r="N10" s="84" t="s">
         <v>28</v>
       </c>
-      <c r="O10" s="118">
+      <c r="O10" s="85">
         <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="104" t="s">
+      <c r="C11" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="100" t="s">
+      <c r="D11" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="E11" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="106" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="100" t="s">
+      <c r="G11" s="106" t="s">
         <v>70</v>
       </c>
-      <c r="H11" s="100" t="s">
+      <c r="H11" s="106" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="106" t="s">
         <v>72</v>
       </c>
-      <c r="J11" s="103" t="s">
+      <c r="J11" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="100" t="s">
+      <c r="K11" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="L11" s="101" t="s">
+      <c r="L11" s="109" t="s">
         <v>75</v>
       </c>
-      <c r="M11" s="101"/>
-      <c r="N11" s="101"/>
-      <c r="O11" s="102" t="s">
+      <c r="M11" s="109"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="110" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="95"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="100"/>
+      <c r="A12" s="105"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="40" t="s">
         <v>76</v>
       </c>
@@ -2782,7 +2828,7 @@
       <c r="N12" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="O12" s="102"/>
+      <c r="O12" s="110"/>
     </row>
     <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
@@ -9002,28 +9048,28 @@
       <c r="O213" s="55"/>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A214" s="97" t="s">
+      <c r="A214" s="112" t="s">
         <v>79</v>
       </c>
-      <c r="B214" s="97"/>
-      <c r="C214" s="97"/>
-      <c r="D214" s="97"/>
+      <c r="B214" s="112"/>
+      <c r="C214" s="112"/>
+      <c r="D214" s="112"/>
       <c r="E214" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="F214" s="98" t="s">
+      <c r="F214" s="113" t="s">
         <v>81</v>
       </c>
-      <c r="G214" s="98"/>
-      <c r="H214" s="98"/>
+      <c r="G214" s="113"/>
+      <c r="H214" s="113"/>
       <c r="I214" s="57"/>
       <c r="J214" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="K214" s="99" t="s">
+      <c r="K214" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="L214" s="99"/>
+      <c r="L214" s="114"/>
     </row>
     <row r="215" spans="1:15" ht="38.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="39"/>
@@ -9039,19 +9085,19 @@
       <c r="E215" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="F215" s="95" t="s">
+      <c r="F215" s="105" t="s">
         <v>84</v>
       </c>
-      <c r="G215" s="95"/>
-      <c r="H215" s="95"/>
+      <c r="G215" s="105"/>
+      <c r="H215" s="105"/>
       <c r="I215" s="50"/>
       <c r="J215" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="K215" s="96" t="s">
+      <c r="K215" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="L215" s="96"/>
+      <c r="L215" s="115"/>
     </row>
     <row r="216" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="41" t="s">
@@ -9072,19 +9118,19 @@
       <c r="E216" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="F216" s="95" t="s">
+      <c r="F216" s="105" t="s">
         <v>88</v>
       </c>
-      <c r="G216" s="95"/>
-      <c r="H216" s="95"/>
+      <c r="G216" s="105"/>
+      <c r="H216" s="105"/>
       <c r="I216" s="50"/>
       <c r="J216" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="K216" s="96" t="s">
+      <c r="K216" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="L216" s="96"/>
+      <c r="L216" s="115"/>
     </row>
     <row r="217" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="41" t="s">
@@ -9105,19 +9151,19 @@
       <c r="E217" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="F217" s="95" t="s">
+      <c r="F217" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="G217" s="95"/>
-      <c r="H217" s="95"/>
+      <c r="G217" s="105"/>
+      <c r="H217" s="105"/>
       <c r="I217" s="50"/>
       <c r="J217" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="K217" s="96" t="s">
+      <c r="K217" s="115" t="s">
         <v>94</v>
       </c>
-      <c r="L217" s="96"/>
+      <c r="L217" s="115"/>
     </row>
     <row r="218" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="41" t="s">
@@ -9138,19 +9184,19 @@
       <c r="E218" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="F218" s="95" t="s">
+      <c r="F218" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="G218" s="95"/>
-      <c r="H218" s="95"/>
+      <c r="G218" s="105"/>
+      <c r="H218" s="105"/>
       <c r="I218" s="50"/>
       <c r="J218" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="K218" s="96" t="s">
+      <c r="K218" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="L218" s="96"/>
+      <c r="L218" s="115"/>
     </row>
     <row r="219" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="62" t="s">
@@ -9171,19 +9217,19 @@
       <c r="E219" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F219" s="95" t="s">
+      <c r="F219" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="G219" s="95"/>
-      <c r="H219" s="95"/>
+      <c r="G219" s="105"/>
+      <c r="H219" s="105"/>
       <c r="I219" s="50"/>
       <c r="J219" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="K219" s="96" t="s">
+      <c r="K219" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="L219" s="96"/>
+      <c r="L219" s="115"/>
     </row>
     <row r="220" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="64"/>
@@ -9192,36 +9238,36 @@
       <c r="E220" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="F220" s="95" t="s">
+      <c r="F220" s="105" t="s">
         <v>105</v>
       </c>
-      <c r="G220" s="95"/>
-      <c r="H220" s="95"/>
+      <c r="G220" s="105"/>
+      <c r="H220" s="105"/>
       <c r="I220" s="50"/>
-      <c r="J220" s="82" t="s">
+      <c r="J220" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="K220" s="82"/>
-      <c r="L220" s="82"/>
+      <c r="K220" s="96"/>
+      <c r="L220" s="96"/>
     </row>
     <row r="221" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="97" t="s">
+      <c r="A221" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="B221" s="97"/>
+      <c r="B221" s="112"/>
       <c r="C221"/>
       <c r="E221" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="F221" s="95" t="s">
+      <c r="F221" s="105" t="s">
         <v>109</v>
       </c>
-      <c r="G221" s="95"/>
-      <c r="H221" s="95"/>
+      <c r="G221" s="105"/>
+      <c r="H221" s="105"/>
       <c r="I221" s="50"/>
-      <c r="J221" s="82"/>
-      <c r="K221" s="82"/>
-      <c r="L221" s="82"/>
+      <c r="J221" s="96"/>
+      <c r="K221" s="96"/>
+      <c r="L221" s="96"/>
     </row>
     <row r="222" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="65" t="s">
@@ -9235,15 +9281,15 @@
       <c r="E222" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="F222" s="95" t="s">
+      <c r="F222" s="105" t="s">
         <v>111</v>
       </c>
-      <c r="G222" s="95"/>
-      <c r="H222" s="95"/>
+      <c r="G222" s="105"/>
+      <c r="H222" s="105"/>
       <c r="I222" s="50"/>
-      <c r="J222" s="82"/>
-      <c r="K222" s="82"/>
-      <c r="L222" s="82"/>
+      <c r="J222" s="96"/>
+      <c r="K222" s="96"/>
+      <c r="L222" s="96"/>
     </row>
     <row r="223" spans="1:15" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="65" t="s">
@@ -9257,15 +9303,15 @@
       <c r="E223" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F223" s="95" t="s">
+      <c r="F223" s="105" t="s">
         <v>113</v>
       </c>
-      <c r="G223" s="95"/>
-      <c r="H223" s="95"/>
+      <c r="G223" s="105"/>
+      <c r="H223" s="105"/>
       <c r="I223" s="50"/>
-      <c r="J223" s="82"/>
-      <c r="K223" s="82"/>
-      <c r="L223" s="82"/>
+      <c r="J223" s="96"/>
+      <c r="K223" s="96"/>
+      <c r="L223" s="96"/>
     </row>
     <row r="224" spans="1:15" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="65" t="s">
@@ -9276,15 +9322,15 @@
         <v>0</v>
       </c>
       <c r="C224"/>
-      <c r="E224" s="82" t="s">
+      <c r="E224" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="F224" s="82"/>
-      <c r="G224" s="82"/>
-      <c r="H224" s="82"/>
-      <c r="J224" s="82"/>
-      <c r="K224" s="82"/>
-      <c r="L224" s="82"/>
+      <c r="F224" s="96"/>
+      <c r="G224" s="96"/>
+      <c r="H224" s="96"/>
+      <c r="J224" s="96"/>
+      <c r="K224" s="96"/>
+      <c r="L224" s="96"/>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="62" t="s">
@@ -9301,6 +9347,39 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="F219:H219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="F220:H220"/>
+    <mergeCell ref="J220:L224"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="F221:H221"/>
+    <mergeCell ref="F222:H222"/>
+    <mergeCell ref="F223:H223"/>
+    <mergeCell ref="E224:H224"/>
+    <mergeCell ref="F216:H216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="F217:H217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="F218:H218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="A214:D214"/>
+    <mergeCell ref="F214:H214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="F215:H215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="O11:O12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="L8:M8"/>
@@ -9311,39 +9390,6 @@
     <mergeCell ref="B5:O5"/>
     <mergeCell ref="A6:O6"/>
     <mergeCell ref="N8:O8"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="O11:O12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="A214:D214"/>
-    <mergeCell ref="F214:H214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="F215:H215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="F216:H216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="F217:H217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="F218:H218"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="F219:H219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="F220:H220"/>
-    <mergeCell ref="J220:L224"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="F221:H221"/>
-    <mergeCell ref="F222:H222"/>
-    <mergeCell ref="F223:H223"/>
-    <mergeCell ref="E224:H224"/>
   </mergeCells>
   <pageMargins left="0.40486111111111101" right="0.34513888888888899" top="0.32986111111111099" bottom="0.40763888888888899" header="0.51180555555555496" footer="0.240972222222222"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -9383,130 +9429,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="67">
         <v>1</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="68">
         <v>2</v>
       </c>
-      <c r="B3" s="109" t="s">
+      <c r="B3" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="68">
         <v>3</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68">
         <v>4</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
     </row>
     <row r="6" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="97"/>
-      <c r="G6" s="97"/>
-      <c r="I6" s="97" t="s">
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="I6" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-      <c r="L6" s="97"/>
-      <c r="M6" s="97"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
     </row>
     <row r="7" spans="1:13" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
-      <c r="G7" s="97"/>
-      <c r="I7" s="97" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="I7" s="112" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="97"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="69"/>
       <c r="D8" s="50"/>
       <c r="E8" s="23"/>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="G8" s="111"/>
-      <c r="K8" s="108" t="s">
+      <c r="G8" s="118"/>
+      <c r="K8" s="101" t="s">
         <v>122</v>
       </c>
-      <c r="L8" s="108"/>
+      <c r="L8" s="101"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110" t="str">
-        <f>'LAPORAN ANALISA'!C7</f>
+      <c r="A9" s="116" t="str">
+        <f>'LAPORAN ANALISA'!C9</f>
         <v>NAMA MATA KULIAH</v>
       </c>
-      <c r="B9" s="110"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
       <c r="F9" s="70" t="s">
         <v>123</v>
       </c>
@@ -17820,10 +17866,10 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I213" s="97" t="s">
+      <c r="I213" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="J213" s="97"/>
+      <c r="J213" s="112"/>
       <c r="K213"/>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.3">
@@ -17961,10 +18007,10 @@
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I218" s="97" t="s">
+      <c r="I218" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="J218" s="97"/>
+      <c r="J218" s="112"/>
       <c r="K218"/>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.3">
@@ -44247,21 +44293,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="I218:J218"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
-    <mergeCell ref="I218:J218"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I213:J213"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.46666666666666701" bottom="0.37847222222222199" header="0.51180555555555496" footer="0.211805555555556"/>
   <pageSetup paperSize="9" scale="68" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
